--- a/results/I3_N5_M3_T15_C100_DepCentral_s1_P2_res.xlsx
+++ b/results/I3_N5_M3_T15_C100_DepCentral_s1_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1389.396452052629</v>
+        <v>839.9596863901648</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006000041961669922</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.64645279649577</v>
+        <v>23.95968639016486</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>6.826797411504206</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>6.826797411504206</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>907.1199992561329</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>453.63</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,105 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -747,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -780,7 +879,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -824,7 +923,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>11.30463804208573</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.483894208462594</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +989,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.08570568301258</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +997,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>7.55409141525918</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>5.064995193736195</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.69536195791427</v>
+        <v>13.91429431698742</v>
       </c>
     </row>
     <row r="9">
@@ -930,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +1043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,6 +1071,132 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000003</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000003</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1320,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000003</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000003</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000003</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>44.43999999999971</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>38.53499999999971</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1375,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>41.36999999999971</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1386,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>45.81499999999971</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>45.83499999999971</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>129.5099999999988</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>127.0749999999989</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>116.2799999999988</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>128.7849999999988</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>128.5799999999988</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>63.13500000000051</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>60.36500000000051</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>61.4050000000005</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>64.17500000000051</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>62.26000000000051</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>152.15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>146.0850000000009</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>146.0700000000009</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>153.8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>155.6850000000009</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>115.6100000000003</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>113.5950000000003</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>115.2400000000003</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>111.4400000000003</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>113.6550000000003</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>129.5099999999988</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>127.0749999999989</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>116.2799999999988</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>128.7849999999988</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>128.5799999999988</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>152.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>146.0850000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>146.0700000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>153.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>155.6850000000009</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.60999989509583</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1560,7 +1785,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>13.5950000000003</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1571,7 +1796,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>15.24000000000031</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1582,7 +1807,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>11.4400000000003</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1593,7 +1818,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>13.65499997138977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1604,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>29.50999999046326</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -1615,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>27.07499999999885</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
@@ -1626,7 +1851,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>16.27999997138977</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
@@ -1637,7 +1862,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>28.78499999999883</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -1648,7 +1873,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>28.57999992370605</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
@@ -1659,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>52.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1670,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>46.08500000000089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1681,7 +1906,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>46.0699999332428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1917,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>53.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1703,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>55.68499994277954</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1750,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1761,7 +1986,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1772,7 +1997,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1783,7 +2008,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1794,7 +2019,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1805,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1816,7 +2041,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1827,7 +2052,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1838,7 +2063,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1849,7 +2074,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>12.755</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>15.325</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1937,7 +2162,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>18.795</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1948,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>16.08</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1959,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.305</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1970,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -1981,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>10.4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -1992,7 +2217,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>13.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2003,7 +2228,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -2014,7 +2239,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2152,72 +2377,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
